--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1608</v>
+        <v>96555</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuela da Rosa</t>
+          <t>Maria Fernanda Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>5873.78</v>
+        <v>10110.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64146</v>
+        <v>26939</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yasmin Campos</t>
+          <t>Alexia Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>5289.62</v>
+        <v>8953.120000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74885</v>
+        <v>50511</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuel Carvalho</t>
+          <t>Calebe Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>9555.700000000001</v>
+        <v>5606.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4562</v>
+        <v>54633</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Costela</t>
+          <t>Sophie Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,143 +581,143 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>3243.78</v>
+        <v>4213.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68418</v>
+        <v>31880</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Cardoso</t>
+          <t>Laura Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>8305.110000000001</v>
+        <v>9740.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85652</v>
+        <v>67176</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabella da Mota</t>
+          <t>Dra. Agatha Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>3231.64</v>
+        <v>11919.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2936</v>
+        <v>67779</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cauã Moraes</t>
+          <t>Stephany Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>6634.01</v>
+        <v>7002.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13884</v>
+        <v>17654</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eloah Gonçalves</t>
+          <t>Joaquim da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>9796.030000000001</v>
+        <v>5599.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47874</v>
+        <v>93725</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leonardo Fernandes</t>
+          <t>Rafaela Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>11375.85</v>
+        <v>8770.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94628</v>
+        <v>44724</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gabriel Farias</t>
+          <t>Sarah da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>2858.77</v>
+        <v>4065.16</v>
       </c>
     </row>
   </sheetData>
